--- a/WorkShop_1.1_Install_Kubernetes/LABSheet.xlsx
+++ b/WorkShop_1.1_Install_Kubernetes/LABSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="12360" windowWidth="31160" windowHeight="11240" tabRatio="500"/>
+    <workbookView xWindow="4200" yWindow="5280" windowWidth="31160" windowHeight="16860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -158,22 +158,58 @@
     <t>Training_DockerZerotoHero_StudentG8_3</t>
   </si>
   <si>
-    <t>54.169.186.42</t>
-  </si>
-  <si>
-    <t>10.0.1.211</t>
-  </si>
-  <si>
-    <t>10.0.1.135</t>
-  </si>
-  <si>
-    <t>13.229.113.255</t>
-  </si>
-  <si>
-    <t>13.250.14.87</t>
-  </si>
-  <si>
-    <t>10.0.1.47</t>
+    <t>Training_DockerZerotoHero_StudentG9_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG9_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG9_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG10_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG10_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG10_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG11_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG12_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG13_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG11_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG11_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG12_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG12_3</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG13_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG13_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG14_1</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG14_2</t>
+  </si>
+  <si>
+    <t>Training_DockerZerotoHero_StudentG14_3</t>
   </si>
 </sst>
 </file>
@@ -212,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,7 +269,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,7 +313,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -285,18 +327,22 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -584,17 +630,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -634,7 +680,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2">
@@ -643,12 +689,8 @@
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
@@ -658,26 +700,22 @@
       <c r="H2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="str">
-        <f t="shared" ref="I2:I43" si="0">E2</f>
-        <v>54.169.186.42</v>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:I46" si="0">E2</f>
+        <v>0</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="9"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>46</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
@@ -687,26 +725,22 @@
       <c r="H3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>13.229.113.255</v>
+      <c r="I3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>47</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
@@ -716,14 +750,14 @@
       <c r="H4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>13.250.14.87</v>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
+      <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" s="5">
@@ -750,7 +784,7 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5">
         <v>5</v>
       </c>
@@ -775,7 +809,7 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5">
         <v>6</v>
       </c>
@@ -800,7 +834,7 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <v>2</v>
       </c>
       <c r="B8" s="2">
@@ -827,7 +861,7 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="2">
         <v>8</v>
       </c>
@@ -852,7 +886,7 @@
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="2">
         <v>9</v>
       </c>
@@ -877,7 +911,7 @@
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
+      <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="5">
@@ -904,7 +938,7 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="5">
         <v>11</v>
       </c>
@@ -929,7 +963,7 @@
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="5">
         <v>12</v>
       </c>
@@ -954,7 +988,7 @@
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <v>4</v>
       </c>
       <c r="B14" s="2">
@@ -981,7 +1015,7 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="2">
         <v>14</v>
       </c>
@@ -1006,7 +1040,7 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="2">
         <v>15</v>
       </c>
@@ -1031,7 +1065,7 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>5</v>
       </c>
       <c r="B17" s="5">
@@ -1058,7 +1092,7 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="5">
         <v>17</v>
       </c>
@@ -1083,7 +1117,7 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="5">
         <v>18</v>
       </c>
@@ -1108,7 +1142,7 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
+      <c r="A20" s="7">
         <v>6</v>
       </c>
       <c r="B20" s="2">
@@ -1135,7 +1169,7 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="2">
         <v>20</v>
       </c>
@@ -1160,7 +1194,7 @@
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="2">
         <v>21</v>
       </c>
@@ -1185,7 +1219,7 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="10">
+      <c r="A23" s="8">
         <v>7</v>
       </c>
       <c r="B23" s="5">
@@ -1212,7 +1246,7 @@
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="5">
         <v>23</v>
       </c>
@@ -1237,7 +1271,7 @@
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="5">
         <v>24</v>
       </c>
@@ -1262,16 +1296,16 @@
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
+      <c r="A26" s="7">
         <v>8</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="3"/>
       <c r="F26" s="2" t="s">
         <v>3</v>
@@ -1289,14 +1323,14 @@
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9">
         <v>26</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="3"/>
       <c r="F27" s="2" t="s">
         <v>37</v>
@@ -1314,14 +1348,14 @@
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
-      <c r="B28" s="2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9">
         <v>27</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="3"/>
       <c r="F28" s="2" t="s">
         <v>38</v>
@@ -1339,14 +1373,14 @@
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="10">
+      <c r="A29" s="8">
         <v>9</v>
       </c>
       <c r="B29" s="5">
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>19</v>
+      <c r="C29" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -1366,12 +1400,12 @@
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="5">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>20</v>
+      <c r="C30" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -1391,12 +1425,12 @@
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="5">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>21</v>
+      <c r="C31" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1416,14 +1450,14 @@
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
+      <c r="A32" s="7">
         <v>10</v>
       </c>
       <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>22</v>
+      <c r="C32" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1443,12 +1477,12 @@
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>23</v>
+      <c r="C33" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1468,12 +1502,12 @@
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="9"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>24</v>
+      <c r="C34" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1493,14 +1527,14 @@
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="10">
+      <c r="A35" s="8">
         <v>11</v>
       </c>
       <c r="B35" s="5">
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
+      <c r="C35" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
@@ -1520,12 +1554,12 @@
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
+      <c r="A36" s="8"/>
       <c r="B36" s="5">
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>26</v>
+      <c r="C36" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -1545,12 +1579,12 @@
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="10"/>
+      <c r="A37" s="8"/>
       <c r="B37" s="5">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>27</v>
+      <c r="C37" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -1570,167 +1604,244 @@
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="11">
-        <v>13</v>
+      <c r="A38" s="7">
+        <v>12</v>
       </c>
       <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" ref="I38:I43" si="1">E38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="7" t="s">
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="2">
+        <v>33</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>14</v>
+      </c>
+      <c r="B41" s="5">
+        <v>34</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="G41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="8"/>
+      <c r="B42" s="5">
+        <v>35</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="8"/>
+      <c r="B43" s="5">
+        <v>36</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="11">
+        <v>15</v>
+      </c>
+      <c r="B44" s="12">
+        <v>37</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I44" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="2">
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="12">
         <v>38</v>
       </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="7" t="s">
+      <c r="C45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="s">
+      <c r="G45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="2">
-        <v>39</v>
-      </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="7" t="s">
+    <row r="46" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12">
+        <v>39</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
+      <c r="G46" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I46" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
-        <v>14</v>
-      </c>
-      <c r="B41" s="5">
-        <v>40</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="5">
-        <v>41</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="24" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="5">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
+  <mergeCells count="15">
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A11:A13"/>
@@ -1739,6 +1850,13 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/WorkShop_1.1_Install_Kubernetes/LABSheet.xlsx
+++ b/WorkShop_1.1_Install_Kubernetes/LABSheet.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="5280" windowWidth="31160" windowHeight="16860" tabRatio="500"/>
+    <workbookView xWindow="8240" yWindow="1040" windowWidth="38400" windowHeight="22960" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="149">
   <si>
     <t>No</t>
   </si>
@@ -68,78 +68,6 @@
     <t>Machine Name</t>
   </si>
   <si>
-    <t>Training-DockerZerotoHero-Teacher1</t>
-  </si>
-  <si>
-    <t>Training-DockerZerotoHero-Teacher2</t>
-  </si>
-  <si>
-    <t>Training-DockerZerotoHero-Teacher3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG1_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG1_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG1_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG2_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG2_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG2_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG3_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG3_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG3_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG4_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG4_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG4_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG5_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG5_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG5_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG6_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG6_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG6_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG7_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG7_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG7_3</t>
-  </si>
-  <si>
     <t>Worker1</t>
   </si>
   <si>
@@ -149,67 +77,403 @@
     <t>ssh -i "docker_lab" ubuntu@</t>
   </si>
   <si>
-    <t>Training_DockerZerotoHero_StudentG8_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG8_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG8_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG9_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG9_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG9_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG10_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG10_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG10_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG11_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG12_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG13_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG11_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG11_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG12_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG12_3</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG13_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG13_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG14_1</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG14_2</t>
-  </si>
-  <si>
-    <t>Training_DockerZerotoHero_StudentG14_3</t>
+    <t>Training_AdvanceDockerwithK8S_StudentG1_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG1_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG1_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG2_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG2_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG2_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG3_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG3_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG3_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG4_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG4_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG4_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG5_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG5_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG5_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG6_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG6_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG6_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG7_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG7_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG7_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG8_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG8_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG8_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG9_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG9_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG9_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG10_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG10_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG10_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG11_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG11_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG11_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG12_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG12_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG12_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG13_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG13_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG13_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG14_1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG14_2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_StudentG14_3</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_Teacher1</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_Teacher2</t>
+  </si>
+  <si>
+    <t>Training_AdvanceDockerwithK8S_Teacher3</t>
+  </si>
+  <si>
+    <t>10.0.1.109</t>
+  </si>
+  <si>
+    <t>13.229.92.115</t>
+  </si>
+  <si>
+    <t>10.0.1.139</t>
+  </si>
+  <si>
+    <t>13.250.11.169</t>
+  </si>
+  <si>
+    <t>10.0.1.47</t>
+  </si>
+  <si>
+    <t>52.221.249.56</t>
+  </si>
+  <si>
+    <t>13.229.215.190</t>
+  </si>
+  <si>
+    <t>10.0.1.50</t>
+  </si>
+  <si>
+    <t>13.229.72.95</t>
+  </si>
+  <si>
+    <t>10.0.1.196</t>
+  </si>
+  <si>
+    <t>13.229.251.109</t>
+  </si>
+  <si>
+    <t>10.0.1.77</t>
+  </si>
+  <si>
+    <t>54.169.75.239</t>
+  </si>
+  <si>
+    <t>10.0.1.174</t>
+  </si>
+  <si>
+    <t>13.229.247.143</t>
+  </si>
+  <si>
+    <t>10.0.1.252</t>
+  </si>
+  <si>
+    <t>13.229.65.47</t>
+  </si>
+  <si>
+    <t>10.0.1.75</t>
+  </si>
+  <si>
+    <t>13.229.206.76</t>
+  </si>
+  <si>
+    <t>10.0.1.85</t>
+  </si>
+  <si>
+    <t>13.229.70.154</t>
+  </si>
+  <si>
+    <t>10.0.1.208</t>
+  </si>
+  <si>
+    <t>3.0.147.248</t>
+  </si>
+  <si>
+    <t>10.0.1.86</t>
+  </si>
+  <si>
+    <t>3.0.146.98</t>
+  </si>
+  <si>
+    <t>10.0.1.234</t>
+  </si>
+  <si>
+    <t>54.255.172.4</t>
+  </si>
+  <si>
+    <t>10.0.1.209</t>
+  </si>
+  <si>
+    <t>54.255.136.224</t>
+  </si>
+  <si>
+    <t>10.0.1.207</t>
+  </si>
+  <si>
+    <t>54.169.204.141</t>
+  </si>
+  <si>
+    <t>10.0.1.134</t>
+  </si>
+  <si>
+    <t>3.0.183.181</t>
+  </si>
+  <si>
+    <t>10.0.1.62</t>
+  </si>
+  <si>
+    <t>18.136.199.90</t>
+  </si>
+  <si>
+    <t>10.0.1.95</t>
+  </si>
+  <si>
+    <t>3.0.176.230</t>
+  </si>
+  <si>
+    <t>10.0.1.202</t>
+  </si>
+  <si>
+    <t>3.0.94.126</t>
+  </si>
+  <si>
+    <t>10.0.1.41</t>
+  </si>
+  <si>
+    <t>3.0.54.130</t>
+  </si>
+  <si>
+    <t>10.0.1.81</t>
+  </si>
+  <si>
+    <t>3.0.98.215</t>
+  </si>
+  <si>
+    <t>10.0.1.65</t>
+  </si>
+  <si>
+    <t>18.136.210.250</t>
+  </si>
+  <si>
+    <t>10.0.1.93</t>
+  </si>
+  <si>
+    <t>54.254.214.135</t>
+  </si>
+  <si>
+    <t>10.0.1.146</t>
+  </si>
+  <si>
+    <t>54.255.138.111</t>
+  </si>
+  <si>
+    <t>10.0.1.154</t>
+  </si>
+  <si>
+    <t>3.0.92.216</t>
+  </si>
+  <si>
+    <t>10.0.1.223</t>
+  </si>
+  <si>
+    <t>3.0.17.138</t>
+  </si>
+  <si>
+    <t>10.0.1.224</t>
+  </si>
+  <si>
+    <t>13.250.38.8</t>
+  </si>
+  <si>
+    <t>10.0.1.55</t>
+  </si>
+  <si>
+    <t>52.221.184.17</t>
+  </si>
+  <si>
+    <t>10.0.1.149</t>
+  </si>
+  <si>
+    <t>3.0.50.103</t>
+  </si>
+  <si>
+    <t>10.0.1.17</t>
+  </si>
+  <si>
+    <t>18.136.198.84</t>
+  </si>
+  <si>
+    <t>10.0.1.131</t>
+  </si>
+  <si>
+    <t>54.255.238.184</t>
+  </si>
+  <si>
+    <t>10.0.1.104</t>
+  </si>
+  <si>
+    <t>52.221.198.125</t>
+  </si>
+  <si>
+    <t>10.0.1.130</t>
+  </si>
+  <si>
+    <t>54.255.239.3</t>
+  </si>
+  <si>
+    <t>10.0.1.218</t>
+  </si>
+  <si>
+    <t>3.0.148.13</t>
+  </si>
+  <si>
+    <t>10.0.1.155</t>
+  </si>
+  <si>
+    <t>3.0.78.255</t>
+  </si>
+  <si>
+    <t>10.0.1.36</t>
+  </si>
+  <si>
+    <t>13.229.223.169</t>
+  </si>
+  <si>
+    <t>10.0.1.40</t>
+  </si>
+  <si>
+    <t>13.250.48.250</t>
+  </si>
+  <si>
+    <t>10.0.1.32</t>
+  </si>
+  <si>
+    <t>13.250.106.234</t>
+  </si>
+  <si>
+    <t>10.0.1.142</t>
+  </si>
+  <si>
+    <t>3.0.177.143</t>
+  </si>
+  <si>
+    <t>10.0.1.4</t>
+  </si>
+  <si>
+    <t>54.169.10.141</t>
+  </si>
+  <si>
+    <t>10.0.1.52</t>
+  </si>
+  <si>
+    <t>3.0.184.79</t>
+  </si>
+  <si>
+    <t>10.0.1.100</t>
+  </si>
+  <si>
+    <t>13.250.98.230</t>
+  </si>
+  <si>
+    <t>10.0.1.60</t>
+  </si>
+  <si>
+    <t>18.136.105.188</t>
+  </si>
+  <si>
+    <t>10.0.1.150</t>
   </si>
 </sst>
 </file>
@@ -304,8 +568,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -327,31 +597,37 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,15 +908,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="55.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.5" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.6640625" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
@@ -680,17 +956,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>143</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
@@ -698,76 +976,84 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="str">
         <f t="shared" ref="I2:I46" si="0">E2</f>
-        <v>0</v>
+        <v>3.0.184.79</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.250.98.230</v>
+      </c>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18.136.105.188</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="F5" s="5" t="s">
         <v>3</v>
       </c>
@@ -775,76 +1061,88 @@
         <v>9</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.92.115</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>13.250.11.169</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>52.221.249.56</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="11">
         <v>2</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>3</v>
       </c>
@@ -852,76 +1150,88 @@
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.215.190</v>
       </c>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.72.95</v>
       </c>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>71</v>
+      </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.251.109</v>
       </c>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="12">
         <v>3</v>
       </c>
       <c r="B11" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="F11" s="5" t="s">
         <v>3</v>
       </c>
@@ -929,76 +1239,88 @@
         <v>9</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54.169.75.239</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.247.143</v>
       </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>77</v>
+      </c>
       <c r="F13" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.65.47</v>
       </c>
       <c r="J13" s="5"/>
     </row>
     <row r="14" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A14" s="7">
+      <c r="A14" s="11">
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
@@ -1006,76 +1328,88 @@
         <v>9</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.206.76</v>
       </c>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="2">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.229.70.154</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="2">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.147.248</v>
       </c>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="12">
         <v>5</v>
       </c>
       <c r="B17" s="5">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="F17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1083,76 +1417,88 @@
         <v>9</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.146.98</v>
       </c>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="5">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>87</v>
+      </c>
       <c r="F18" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54.255.172.4</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54.255.136.224</v>
       </c>
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+      <c r="A20" s="11">
         <v>6</v>
       </c>
       <c r="B20" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>3</v>
       </c>
@@ -1160,76 +1506,88 @@
         <v>9</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>54.169.204.141</v>
       </c>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.183.181</v>
       </c>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18.136.199.90</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="12">
         <v>7</v>
       </c>
       <c r="B23" s="5">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>3</v>
       </c>
@@ -1237,76 +1595,88 @@
         <v>9</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.176.230</v>
       </c>
       <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="5">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="F24" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.94.126</v>
       </c>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" s="4" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="12"/>
       <c r="B25" s="5">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F25" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.54.130</v>
       </c>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
+      <c r="A26" s="11">
         <v>8</v>
       </c>
-      <c r="B26" s="9">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="7">
+        <v>22</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1314,76 +1684,88 @@
         <v>9</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.98.215</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="7">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>18.136.210.250</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="7">
+        <v>24</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9">
-        <v>26</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9">
-        <v>27</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="F28" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>54.254.214.135</v>
       </c>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
+      <c r="A29" s="12">
         <v>9</v>
       </c>
       <c r="B29" s="5">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="F29" s="5" t="s">
         <v>3</v>
       </c>
@@ -1391,76 +1773,88 @@
         <v>9</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54.255.138.111</v>
       </c>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="12"/>
       <c r="B30" s="5">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+        <v>41</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="F30" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.92.216</v>
       </c>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F31" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.17.138</v>
       </c>
       <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+      <c r="A32" s="11">
         <v>10</v>
       </c>
       <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>3</v>
       </c>
@@ -1468,76 +1862,88 @@
         <v>9</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I32" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>13.250.38.8</v>
       </c>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A33" s="7"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>52.221.184.17</v>
       </c>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="F34" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.50.103</v>
       </c>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A35" s="8">
+      <c r="A35" s="12">
         <v>11</v>
       </c>
       <c r="B35" s="5">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F35" s="5" t="s">
         <v>3</v>
       </c>
@@ -1545,76 +1951,88 @@
         <v>9</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>18.136.198.84</v>
       </c>
       <c r="J35" s="5"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
+      <c r="A36" s="12"/>
       <c r="B36" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="F36" s="5" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>54.255.238.184</v>
       </c>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
+      <c r="A37" s="12"/>
       <c r="B37" s="5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F37" s="5" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>52.221.198.125</v>
       </c>
       <c r="J37" s="5"/>
     </row>
     <row r="38" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A38" s="7">
+      <c r="A38" s="11">
         <v>12</v>
       </c>
       <c r="B38" s="2">
-        <v>31</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>127</v>
+      </c>
       <c r="F38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1622,226 +2040,267 @@
         <v>9</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f t="shared" ref="I38:I43" si="1">E38</f>
+        <v>54.255.239.3</v>
+      </c>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="2">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3.0.148.13</v>
+      </c>
+      <c r="J39" s="2"/>
+    </row>
+    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="2">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>3.0.78.255</v>
+      </c>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>13</v>
+      </c>
+      <c r="B41" s="9">
+        <v>34</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>13.229.223.169</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9">
+        <v>35</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>13.250.48.250</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9">
+        <v>36</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>13.250.106.234</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A44" s="13">
+        <v>14</v>
+      </c>
+      <c r="B44" s="9">
+        <v>37</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>3.0.177.143</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="9">
+        <v>38</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>54.169.10.141</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="9">
         <v>39</v>
       </c>
-      <c r="I38" s="2">
-        <f t="shared" ref="I38:I43" si="1">E38</f>
+      <c r="C46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="2">
-        <v>32</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="2">
-        <v>33</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A41" s="8">
-        <v>14</v>
-      </c>
-      <c r="B41" s="5">
-        <v>34</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="5">
-        <v>35</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="5">
-        <v>36</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A44" s="11">
-        <v>15</v>
-      </c>
-      <c r="B44" s="12">
-        <v>37</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12">
-        <v>38</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I45" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12">
-        <v>39</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I46" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="9" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="A35:A37"/>
     <mergeCell ref="A11:A13"/>
@@ -1850,13 +2309,6 @@
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A44:A46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
